--- a/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>10.37916750935649</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-39.299960483929</v>
+        <v>-39.29996048392901</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.06159769722223</v>
+        <v>10.7785738404314</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.274390370357662</v>
+        <v>-7.993447225612288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-44.07626006620016</v>
+        <v>-44.30494656572029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.56495718369872</v>
+        <v>17.16320612261292</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.314374552729449</v>
+        <v>9.712713045356679</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-49.52816350938868</v>
+        <v>-49.95173787099617</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>15.94879715669341</v>
+        <v>15.60609460162759</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.841397615058819</v>
+        <v>3.888084932640544</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-44.3631903920939</v>
+        <v>-44.21143732028398</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.19714284669884</v>
+        <v>28.08091873525299</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.50333786437591</v>
+        <v>10.568478711814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-31.42084702834645</v>
+        <v>-30.31949668914456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34.55646371993919</v>
+        <v>35.66200794778121</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.04453375115201</v>
+        <v>27.54198248221497</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-34.0352129075651</v>
+        <v>-34.68955042093646</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>29.41019682244059</v>
+        <v>28.06916371055054</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.27331969234342</v>
+        <v>17.1996377875297</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-34.69416315534388</v>
+        <v>-34.0059588078237</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2131805526486406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.8071926084130766</v>
+        <v>-0.8071926084130767</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2066511385943294</v>
+        <v>0.2156226307618737</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1504074477599388</v>
+        <v>-0.1611801896326146</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8870795533323305</v>
+        <v>-0.8863104223965449</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2860134009579478</v>
+        <v>0.2921691075362375</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1400744489511702</v>
+        <v>0.1642289742605676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.831698556833901</v>
+        <v>-0.8374530082262336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2995228352543601</v>
+        <v>0.3046648487975563</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.07814304882699676</v>
+        <v>0.07235969289165189</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8409912145632704</v>
+        <v>-0.8414476320614883</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6825955795340439</v>
+        <v>0.6915635554700095</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2608626862209117</v>
+        <v>0.2658242392001888</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.7731355849117543</v>
+        <v>-0.7693203780394147</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7358318573131327</v>
+        <v>0.740756181869465</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5837891736454679</v>
+        <v>0.5639344532319237</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.7170007723133794</v>
+        <v>-0.7207839124104968</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.648094811103007</v>
+        <v>0.6209441997949435</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3836228494376668</v>
+        <v>0.3763223813336731</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.7617678718635937</v>
+        <v>-0.7631890931777197</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.37187594353651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-41.56278236191465</v>
+        <v>-41.56278236191466</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>18.74179317010887</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9667817676187414</v>
+        <v>0.1085144068486353</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.466605812924502</v>
+        <v>-8.437306982692199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-48.52443684471861</v>
+        <v>-49.27937802455903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.39480526862026</v>
+        <v>10.56702253515775</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.283941283172746</v>
+        <v>-3.511800967237364</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-60.06453736793449</v>
+        <v>-59.40661879384975</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.930725345567525</v>
+        <v>6.57295266972529</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.203384973687531</v>
+        <v>-3.162724077040808</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-52.99559133028312</v>
+        <v>-53.17911316389636</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.85691837983448</v>
+        <v>19.97318485394249</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.90732773813589</v>
+        <v>11.5442262661672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-33.87505673927544</v>
+        <v>-33.73084522921212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.39562844674223</v>
+        <v>26.22259970228466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.03872234481433</v>
+        <v>14.81761626470134</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-45.41350818375417</v>
+        <v>-45.14506175686882</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>20.35686638539445</v>
+        <v>19.8014774629165</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.73446975212721</v>
+        <v>10.15903788865116</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-42.53496219109068</v>
+        <v>-42.73101241484896</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.02853943387315058</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.8646396085525092</v>
+        <v>-0.8646396085525093</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2876030494202023</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.009586373534130671</v>
+        <v>0.002103530146205366</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1728116945130564</v>
+        <v>-0.1596603413090213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.908497970571906</v>
+        <v>-0.9107082473731877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1663713820162055</v>
+        <v>0.1540768531676553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03145486812623503</v>
+        <v>-0.04881236658898031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8550205951896899</v>
+        <v>-0.8511868831687639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1157150693435401</v>
+        <v>0.1066808926100651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05162415622315509</v>
+        <v>-0.05397466032967647</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8691469485140493</v>
+        <v>-0.8675817931029571</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4858516715408233</v>
+        <v>0.461633946953884</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2642278289781294</v>
+        <v>0.2708120654307273</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.8041911238604028</v>
+        <v>-0.7999789945699415</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4634942682155173</v>
+        <v>0.4412408332862773</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2534111529118984</v>
+        <v>0.2441575135830656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.7563830116290337</v>
+        <v>-0.7519594256920277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3910565152495904</v>
+        <v>0.3721958954393035</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2027507090600324</v>
+        <v>0.1902819419053272</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.798253980258359</v>
+        <v>-0.7946247384404169</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.788282030973048</v>
+        <v>2.001988590488423</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.491856812522478</v>
+        <v>-1.617541696718113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-33.98566928423284</v>
+        <v>-34.23968126216357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.628779332178809</v>
+        <v>-8.961920270484205</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-22.3746638327629</v>
+        <v>-21.10332763704329</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-56.79561554274901</v>
+        <v>-55.72444848664134</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.228652788970548</v>
+        <v>2.149954054243192</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.475984764541383</v>
+        <v>-3.80317159108179</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-38.44463369363704</v>
+        <v>-38.46112559147697</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.63247526703504</v>
+        <v>17.18449448096064</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.50620118787624</v>
+        <v>14.23509231579942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-22.01665969484605</v>
+        <v>-21.83947082260929</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.0886898656972</v>
+        <v>13.97210773237964</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.299599797904047</v>
+        <v>4.753978618214331</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-36.84043007740288</v>
+        <v>-37.65474072423613</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.29560788004738</v>
+        <v>14.96230102267188</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.860601942373922</v>
+        <v>9.160954230938492</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-27.981110100461</v>
+        <v>-27.62490657016485</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06730162225573309</v>
+        <v>0.04377957853400753</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03341018227079456</v>
+        <v>-0.03637268190973524</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7895200124047023</v>
+        <v>-0.7926208725230951</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1324529890515276</v>
+        <v>-0.146387413945768</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3640864215360896</v>
+        <v>-0.3421629583640048</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8907472567416626</v>
+        <v>-0.8861298491233961</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04636501423526491</v>
+        <v>0.04643981821794919</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09330645643861699</v>
+        <v>-0.083198294028879</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8181123781509908</v>
+        <v>-0.8159704500421621</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4896558292602174</v>
+        <v>0.4865255415951181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3817305082670269</v>
+        <v>0.41089703776016</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.6121346665619325</v>
+        <v>-0.6108702927666142</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3110728799384352</v>
+        <v>0.2815059319997124</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08839401971576932</v>
+        <v>0.09859834466458794</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.7460691519078611</v>
+        <v>-0.7527880284802939</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3784380484406852</v>
+        <v>0.3718060980881029</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.222263245830803</v>
+        <v>0.2228103551686563</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.7016759091308538</v>
+        <v>-0.686981231699512</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>10.73545012559427</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-30.77241569913143</v>
+        <v>-30.77241569913142</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.620494931157163</v>
+        <v>7.976072589895108</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.993152374064427</v>
+        <v>6.539102914032847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-26.98623250095989</v>
+        <v>-26.79563202012667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.19765353146396</v>
+        <v>14.93118595322595</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3009661170346719</v>
+        <v>-0.5799288512390516</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-48.83988447245012</v>
+        <v>-48.74317056687472</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.71501113386154</v>
+        <v>12.74179775210281</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.535973733359282</v>
+        <v>6.959589568146747</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-34.20478630462743</v>
+        <v>-33.68760181536346</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.40281263734731</v>
+        <v>17.63484816071802</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.70120265297395</v>
+        <v>16.12576431142089</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-19.17392382966167</v>
+        <v>-19.09352086035263</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.3256145271999</v>
+        <v>26.40929577873928</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.58924565554837</v>
+        <v>12.06678555762677</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-38.29976117065718</v>
+        <v>-38.99350146590114</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>20.5106799342185</v>
+        <v>20.79248621171402</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>14.21670101586908</v>
+        <v>14.65956757983582</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-27.76769953485688</v>
+        <v>-27.51040578517252</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2516474938030691</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.7213299114948828</v>
+        <v>-0.7213299114948826</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2051664387342823</v>
+        <v>0.2105757819007964</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1617825235767286</v>
+        <v>0.1714432222999227</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.735179811865018</v>
+        <v>-0.7338597549010181</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2555708114067987</v>
+        <v>0.2457905109903023</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.004410154933729939</v>
+        <v>-0.009363504857790726</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8124296948799856</v>
+        <v>-0.8109441988063377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2817380960495384</v>
+        <v>0.2860374530703079</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1467580077071842</v>
+        <v>0.1573396750759211</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7559188440328302</v>
+        <v>-0.7570653369243738</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5425759450816791</v>
+        <v>0.5516282441552083</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5023343403182851</v>
+        <v>0.5064195111945378</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.6025274254172795</v>
+        <v>-0.6039398328992029</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5234394464788912</v>
+        <v>0.4996875821575474</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2422850212926941</v>
+        <v>0.225855353908225</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.7269263802384662</v>
+        <v>-0.7298411389319525</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5020596616212614</v>
+        <v>0.5121258869469999</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3458161452633521</v>
+        <v>0.3595782841963792</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.6806395189035404</v>
+        <v>-0.6795046780191222</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>3.825991171308907</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-33.82039455532078</v>
+        <v>-33.82039455532077</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>12.30565624972202</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.867605618043509</v>
+        <v>3.147323292319309</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7990447909296647</v>
+        <v>-1.162490394823835</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-33.02902330042664</v>
+        <v>-33.74511560482264</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.136761134495801</v>
+        <v>6.341609038174025</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.910802023904814</v>
+        <v>-3.114816761973549</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-38.92814727814289</v>
+        <v>-39.60632155841793</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.719496665831012</v>
+        <v>7.084777468303299</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.399661912303981</v>
+        <v>-1.689724387321074</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-36.15269921341962</v>
+        <v>-35.86950176277482</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.3965174715488</v>
+        <v>20.30443839013022</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.2573122399172</v>
+        <v>16.1782011260764</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-19.20435228353025</v>
+        <v>-18.96167871644502</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.30368747507755</v>
+        <v>19.11504627279759</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.79097654413649</v>
+        <v>10.74159871871545</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-28.18514001487743</v>
+        <v>-28.31732171738097</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.8443218499989</v>
+        <v>17.5632795077492</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.914334757923921</v>
+        <v>8.965699059333742</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-27.21636700597092</v>
+        <v>-26.90772551262188</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.21163707257673</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.7712822034663454</v>
+        <v>-0.7712822034663456</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2620096469805294</v>
@@ -1616,7 +1616,7 @@
         <v>0.07821974765197785</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.6914346137140964</v>
+        <v>-0.6914346137140963</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2808998396028394</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09543805820999103</v>
+        <v>0.0768623886176681</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.02001131188093738</v>
+        <v>-0.03111932984723723</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8421172327869432</v>
+        <v>-0.8444864151367679</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1159513480673712</v>
+        <v>0.1196077504004302</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0551798752455277</v>
+        <v>-0.06229806789877782</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7413220492731097</v>
+        <v>-0.7462494518145145</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1452491283567373</v>
+        <v>0.1477674422395323</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.02961921364087743</v>
+        <v>-0.03723318340211654</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7668671052830449</v>
+        <v>-0.7668881044790993</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7308582427768874</v>
+        <v>0.6845613444712886</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5643788156596101</v>
+        <v>0.5555632462297326</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.6679883009723651</v>
+        <v>-0.6700043554379705</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4295698489839926</v>
+        <v>0.4227873369835387</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2386135901508986</v>
+        <v>0.2436858912338923</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6322448884984654</v>
+        <v>-0.6300318341764711</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4443155724342917</v>
+        <v>0.4299616651867352</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2209314100210071</v>
+        <v>0.223038864942812</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.6667833111030462</v>
+        <v>-0.6739257778891583</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.757621017962832</v>
+        <v>-8.452028661207548</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.019875741512925</v>
+        <v>-0.7151921143464682</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-19.19131653923231</v>
+        <v>-18.15950273588478</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.306471495808795</v>
+        <v>4.378117982050949</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.015262298984507</v>
+        <v>-4.874240593971143</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-21.04294219334959</v>
+        <v>-21.11884760804205</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.062696164106097</v>
+        <v>3.658942162201443</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.512162985974617</v>
+        <v>-3.792046271835787</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-21.11972415370463</v>
+        <v>-21.4921360112121</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.20534809492845</v>
+        <v>12.16742852487897</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>20.98939150239222</v>
+        <v>21.80358217749503</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.222413559864839</v>
+        <v>-3.087412531029204</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.63483778018517</v>
+        <v>13.59450147099333</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.512455513733877</v>
+        <v>4.468371914420237</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-13.74665118423891</v>
+        <v>-13.77867028040496</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.44680279932981</v>
+        <v>11.95419536359398</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.075834788231675</v>
+        <v>4.645650561822475</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-14.5304192103363</v>
+        <v>-14.31699576653428</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.6816488958005797</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.7004411434296307</v>
+        <v>-0.7004411434296306</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2853886583077655</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4802291806191924</v>
+        <v>-0.4560125376577554</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.08463412000612648</v>
+        <v>-0.05721371103448257</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.9095520313257616</v>
+        <v>-0.9090581759410499</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1283034556319686</v>
+        <v>0.1295149445282191</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1553914037999118</v>
+        <v>-0.150742353325208</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6506177736258338</v>
+        <v>-0.6443200445191652</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1336217693664901</v>
+        <v>0.1153723577744759</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1149738004244721</v>
+        <v>-0.1255876763149799</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6822905956079126</v>
+        <v>-0.6929296328564269</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.11855825832308</v>
+        <v>1.248758595294846</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.153118002174747</v>
+        <v>2.122201792054644</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2275657878285332</v>
+        <v>-0.1407810595613896</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.484420702532747</v>
+        <v>0.4733280153762485</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1585933186874725</v>
+        <v>0.1563454191364783</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.4788368316868838</v>
+        <v>-0.4802081670207354</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4635318038702554</v>
+        <v>0.449574691701347</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.186150123809395</v>
+        <v>0.1733301925798163</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.5303798260070113</v>
+        <v>-0.5324537644246752</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>9.132882543890874</v>
+        <v>9.332756061154205</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.858109584224494</v>
+        <v>4.237140237744428</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-30.5209837214284</v>
+        <v>-30.61815142464651</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12.79459144226701</v>
+        <v>12.85864717434226</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.203920679134937</v>
+        <v>2.385451043782795</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-35.14212795656565</v>
+        <v>-35.25142299085561</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>11.89255814055539</v>
+        <v>12.04786159614909</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.858202560765696</v>
+        <v>4.182011263449266</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-32.49919554992607</v>
+        <v>-32.65164515996936</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>15.57082131048936</v>
+        <v>15.61547948033945</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.35819711664574</v>
+        <v>10.60025008460472</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-25.68462591158659</v>
+        <v>-25.78528974034225</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>18.53617779724736</v>
+        <v>18.29501950173667</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.401012693473254</v>
+        <v>8.255363860464758</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-30.76953365531993</v>
+        <v>-30.86548384081922</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.21592124599788</v>
+        <v>16.28413851788056</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.246016501231985</v>
+        <v>8.310734033416054</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-29.10554445046996</v>
+        <v>-29.27726435887512</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2345356262770253</v>
+        <v>0.2406346208452236</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.09777030569891977</v>
+        <v>0.1078177497640239</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7906803295924425</v>
+        <v>-0.7920924105358439</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2675673496034087</v>
+        <v>0.2731587678135993</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.04596217945559066</v>
+        <v>0.05042245305711772</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7398660868852677</v>
+        <v>-0.7408759314464132</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2742441282416347</v>
+        <v>0.2797958383437713</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08834175337248155</v>
+        <v>0.09672904213931618</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.7563545463010217</v>
+        <v>-0.7577453263380715</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4400266503734508</v>
+        <v>0.448227766081194</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2891299362344098</v>
+        <v>0.2959704224947443</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.7266814810273581</v>
+        <v>-0.7299765912075501</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4178757398889543</v>
+        <v>0.4157539226644866</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1882979712661608</v>
+        <v>0.1875882277679103</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.6900986602209239</v>
+        <v>-0.6905501633351049</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3995224538898147</v>
+        <v>0.4004746560315368</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2027370361046887</v>
+        <v>0.2048717160266322</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.7164039120471718</v>
+        <v>-0.7197080210118016</v>
       </c>
     </row>
     <row r="46">
